--- a/5_Daily Schedule/Daily_Schedule.xlsx
+++ b/5_Daily Schedule/Daily_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/5_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF737BD2-CFBA-4632-8C26-C93FEF75345A}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E516FC5-66F4-4EEB-BDDF-47BA62C1004E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1085">
   <si>
     <t>Date</t>
   </si>
@@ -4420,6 +4420,36 @@
   <si>
     <t>DB Module 1 and Module 2
 Multi threading and concurrency class</t>
+  </si>
+  <si>
+    <t>DB Module 2</t>
+  </si>
+  <si>
+    <t>DB Module 2
+Ravi uncle function</t>
+  </si>
+  <si>
+    <t>Performance - marketplace
+Performance - filters</t>
+  </si>
+  <si>
+    <t>DB Module 2 - Stored procedures</t>
+  </si>
+  <si>
+    <t>Performance - marketplace
+Sridhar- promotion, SC</t>
+  </si>
+  <si>
+    <t>DB Revise
+Reading newsletters</t>
+  </si>
+  <si>
+    <t>DB Revise
+Reading - Newsletters</t>
+  </si>
+  <si>
+    <t>SRs triaging
+FY24 Q1 task update</t>
   </si>
 </sst>
 </file>
@@ -5124,6 +5154,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8071,9 +8105,9 @@
   <dimension ref="G1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8256,30 +8290,40 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G15" s="9">
         <v>11</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16" t="s">
+        <v>1078</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G16" s="9">
         <v>12</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>1079</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G17" s="9">
         <v>13</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>1081</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
     </row>
@@ -8301,20 +8345,24 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G20" s="9">
         <v>16</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="16" t="s">
+        <v>1082</v>
+      </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G21" s="9">
         <v>17</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16" t="s">
+        <v>1083</v>
+      </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -8337,12 +8385,14 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G24" s="9">
         <v>20</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="16" t="s">
+        <v>1084</v>
+      </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>

--- a/5_Daily Schedule/Daily_Schedule.xlsx
+++ b/5_Daily Schedule/Daily_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/5_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D732C4D5-13E4-4613-A046-FDDCA9656137}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E73017D-D28B-4A7E-8548-D8A8AA83054E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,26 +23,27 @@
     <sheet name="Yearly_check" sheetId="18" r:id="rId8"/>
     <sheet name="Monthly_check" sheetId="4" r:id="rId9"/>
     <sheet name="Bi_Weekly_check" sheetId="11" r:id="rId10"/>
-    <sheet name="January" sheetId="14" state="hidden" r:id="rId11"/>
-    <sheet name="February" sheetId="19" state="hidden" r:id="rId12"/>
-    <sheet name="March" sheetId="20" state="hidden" r:id="rId13"/>
-    <sheet name="April" sheetId="21" state="hidden" r:id="rId14"/>
-    <sheet name="May" sheetId="22" state="hidden" r:id="rId15"/>
-    <sheet name="June" sheetId="23" r:id="rId16"/>
-    <sheet name="July" sheetId="24" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId18"/>
-    <sheet name="August" sheetId="1" state="hidden" r:id="rId19"/>
-    <sheet name="September" sheetId="5" state="hidden" r:id="rId20"/>
-    <sheet name="October" sheetId="10" state="hidden" r:id="rId21"/>
-    <sheet name="November" sheetId="12" state="hidden" r:id="rId22"/>
-    <sheet name="December" sheetId="13" state="hidden" r:id="rId23"/>
+    <sheet name="October_23" sheetId="25" r:id="rId11"/>
+    <sheet name="January" sheetId="14" state="hidden" r:id="rId12"/>
+    <sheet name="February" sheetId="19" state="hidden" r:id="rId13"/>
+    <sheet name="March" sheetId="20" state="hidden" r:id="rId14"/>
+    <sheet name="April" sheetId="21" state="hidden" r:id="rId15"/>
+    <sheet name="May" sheetId="22" state="hidden" r:id="rId16"/>
+    <sheet name="June" sheetId="23" state="hidden" r:id="rId17"/>
+    <sheet name="July" sheetId="24" state="hidden" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId19"/>
+    <sheet name="August" sheetId="1" state="hidden" r:id="rId20"/>
+    <sheet name="September" sheetId="5" state="hidden" r:id="rId21"/>
+    <sheet name="October" sheetId="10" state="hidden" r:id="rId22"/>
+    <sheet name="November" sheetId="12" r:id="rId23"/>
+    <sheet name="December" sheetId="13" state="hidden" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Family_Dates!$D$2:$F$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Network!$I$13:$K$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">November!$F$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">October!$H$3:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">September!$D$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">November!$F$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">October!$H$3:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1113">
   <si>
     <t>Date</t>
   </si>
@@ -3809,13 +3810,7 @@
     <t>Pavan V</t>
   </si>
   <si>
-    <t>Venkat pedhaina</t>
-  </si>
-  <si>
     <t>Prashant</t>
-  </si>
-  <si>
-    <t>Sai</t>
   </si>
   <si>
     <t xml:space="preserve">Somu </t>
@@ -4504,13 +4499,60 @@
     <t>Mud Guards</t>
   </si>
   <si>
-    <t>Savings</t>
-  </si>
-  <si>
     <t>Abhiram</t>
   </si>
   <si>
     <t>Home EMI</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/StarAndDaisy-Adjustable-Multi-Function-Anti-Rollover-Folding/dp/B0BD57L2B9/ref=sr_1_4?crid=WDK6TKA1XPCF&amp;keywords=walker%2Bfor%2Bbaby%2Bboy%2B6%2Bto%2B18%2Bmonths&amp;qid=1695629991&amp;refinements=p_89%3AStarAndDaisy&amp;rnid=3837712031&amp;s=baby&amp;sprefix=walker%2Bfor%2B%2Caps%2C507&amp;sr=1-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Mee-Baby-Walker-Adjustable-Travel-Friendly/dp/B0C8CVX67T/ref=sr_1_6?crid=15U4MSO2QNO9U&amp;keywords=walker%2Bbaby%2B6-18months%2Bboy&amp;qid=1694774856&amp;refinements=p_89%3AMee%2BMee&amp;rnid=3837712031&amp;s=baby&amp;sprefix=walker%2Caps%2C659&amp;sr=1-6&amp;th=1</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Extra donation</t>
+  </si>
+  <si>
+    <t>Scaler</t>
+  </si>
+  <si>
+    <t>Commitments - Covid</t>
+  </si>
+  <si>
+    <t>Dilip</t>
+  </si>
+  <si>
+    <t>Performance - iHUB
+Update contributions
+File Naming convention</t>
+  </si>
+  <si>
+    <t>Standout and JIRA</t>
+  </si>
+  <si>
+    <t>Spects</t>
+  </si>
+  <si>
+    <t>Venkat Arapally</t>
+  </si>
+  <si>
+    <t>Arjun, Akshay</t>
+  </si>
+  <si>
+    <t>Dheeraj</t>
   </si>
 </sst>
 </file>
@@ -4874,7 +4916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5061,9 +5103,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5107,6 +5146,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5174,15 +5243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5205,6 +5265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5547,7 +5611,7 @@
       <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="74" t="s">
         <v>685</v>
       </c>
       <c r="G4" s="19">
@@ -5567,7 +5631,7 @@
       <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>669</v>
       </c>
       <c r="G5" s="19">
@@ -5587,7 +5651,7 @@
       <c r="D6" s="19">
         <v>3</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="74" t="s">
         <v>910</v>
       </c>
       <c r="G6" s="19">
@@ -5822,7 +5886,7 @@
       <c r="G21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="81" t="s">
         <v>852</v>
       </c>
     </row>
@@ -5830,7 +5894,7 @@
       <c r="A24" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>799</v>
       </c>
     </row>
@@ -5872,7 +5936,7 @@
   <dimension ref="D1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -6125,50 +6189,50 @@
     </row>
     <row r="16" spans="4:8" ht="72" x14ac:dyDescent="0.3">
       <c r="D16" s="36" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D17" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>1029</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F17" s="35" t="s">
+      <c r="H17" s="35" t="s">
         <v>1054</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>1056</v>
-      </c>
       <c r="I17" s="35" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D18" s="36" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>1089</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -6178,6 +6242,326 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAB8D-7AF0-47F8-94B2-B5D2182BD481}">
+  <dimension ref="F4:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F5" s="60">
+        <v>45200</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="60">
+        <v>45201</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="60">
+        <v>45202</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="60">
+        <v>45203</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="60">
+        <v>45204</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="60">
+        <v>45205</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="60">
+        <v>45206</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="60">
+        <v>45207</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="60">
+        <v>45208</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="60">
+        <v>45209</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="60">
+        <v>45210</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="60">
+        <v>45211</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="60">
+        <v>45212</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="60">
+        <v>45213</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="60">
+        <v>45214</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="60">
+        <v>45215</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="60">
+        <v>45216</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="60">
+        <v>45217</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="60">
+        <v>45218</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F24" s="60">
+        <v>45219</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="60">
+        <v>45220</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="60">
+        <v>45221</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="60">
+        <v>45222</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F28" s="60">
+        <v>45223</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="60">
+        <v>45224</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F30" s="60">
+        <v>45225</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F31" s="60">
+        <v>45226</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="60">
+        <v>45227</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="60">
+        <v>45228</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="60">
+        <v>45229</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="60">
+        <v>45230</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108951A9-5574-4450-9E88-2E035139CCFB}">
   <dimension ref="E1:I32"/>
   <sheetViews>
@@ -6512,16 +6896,16 @@
       <c r="E25" s="8">
         <v>44950</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="107" t="s">
         <v>802</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="107" t="s">
         <v>821</v>
       </c>
-      <c r="H25" s="98" t="s">
+      <c r="H25" s="107" t="s">
         <v>802</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="107" t="s">
         <v>681</v>
       </c>
     </row>
@@ -6529,34 +6913,34 @@
       <c r="E26" s="8">
         <v>44951</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="8">
         <v>44952</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <v>44953</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="107" t="s">
         <v>824</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="107" t="s">
         <v>802</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="107" t="s">
         <v>825</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="107" t="s">
         <v>681</v>
       </c>
     </row>
@@ -6564,28 +6948,28 @@
       <c r="E29" s="8">
         <v>44954</v>
       </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="8">
         <v>44955</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="8">
         <v>44956</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="8">
@@ -6613,7 +6997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31E735-3C18-4990-B19F-FFA637F3D222}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -6651,16 +7035,16 @@
       <c r="F2" s="33">
         <v>44958</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="110" t="s">
         <v>847</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="110" t="s">
         <v>848</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="111" t="s">
         <v>849</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="110" t="s">
         <v>850</v>
       </c>
     </row>
@@ -6668,10 +7052,10 @@
       <c r="F3" s="33">
         <v>44959</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="101"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="33">
@@ -6976,7 +7360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7F667B-AC46-4A5B-9E68-DFF7990E7E64}">
   <dimension ref="G3:K34"/>
   <sheetViews>
@@ -7146,7 +7530,7 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -7157,7 +7541,7 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -7168,7 +7552,7 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -7197,7 +7581,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -7208,7 +7592,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -7219,7 +7603,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -7229,10 +7613,10 @@
         <v>45008</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -7242,10 +7626,10 @@
         <v>45009</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -7273,10 +7657,10 @@
         <v>45012</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -7286,10 +7670,10 @@
         <v>45013</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -7308,10 +7692,10 @@
         <v>45015</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -7321,10 +7705,10 @@
         <v>45016</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -7334,7 +7718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF6E82-368C-4B58-8240-7BC3DC7FE1EF}">
   <dimension ref="G2:K34"/>
   <sheetViews>
@@ -7353,10 +7737,10 @@
   <sheetData>
     <row r="2" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>683</v>
@@ -7369,14 +7753,14 @@
     <row r="3" spans="7:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="7:11" x14ac:dyDescent="0.3">
@@ -7401,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -7412,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -7432,10 +7816,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -7454,10 +7838,10 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -7467,10 +7851,10 @@
         <v>7</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -7571,7 +7955,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="18" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -7617,7 +8001,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -7628,10 +8012,10 @@
         <v>24</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -7641,10 +8025,10 @@
         <v>25</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -7654,10 +8038,10 @@
         <v>26</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -7667,10 +8051,10 @@
         <v>27</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -7680,7 +8064,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="1"/>
@@ -7691,7 +8075,7 @@
         <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="1"/>
@@ -7702,7 +8086,7 @@
         <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="1"/>
@@ -7714,7 +8098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40D7B9-FF0A-4DFE-A2CD-5212DD0FD24D}">
   <dimension ref="G1:K36"/>
   <sheetViews>
@@ -7734,10 +8118,10 @@
   <sheetData>
     <row r="1" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G1" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>683</v>
@@ -7749,10 +8133,10 @@
     </row>
     <row r="3" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>683</v>
@@ -7765,14 +8149,14 @@
     <row r="4" spans="7:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
       <c r="H4" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="7:11" x14ac:dyDescent="0.3">
@@ -7797,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -7808,10 +8192,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -7821,10 +8205,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>1018</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -7834,10 +8218,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -7847,7 +8231,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -7858,7 +8242,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -7869,7 +8253,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -7881,7 +8265,7 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -7892,7 +8276,7 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -7902,10 +8286,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -7915,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -7944,7 +8328,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -7955,10 +8339,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -7968,10 +8352,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>1033</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>1035</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -7981,7 +8365,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -7992,10 +8376,10 @@
         <v>18</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -8005,10 +8389,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -8018,7 +8402,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -8029,7 +8413,7 @@
         <v>21</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -8040,10 +8424,10 @@
         <v>22</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -8053,10 +8437,10 @@
         <v>23</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -8066,10 +8450,10 @@
         <v>24</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -8079,10 +8463,10 @@
         <v>25</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -8092,7 +8476,7 @@
         <v>26</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -8103,7 +8487,7 @@
         <v>27</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -8114,7 +8498,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -8125,7 +8509,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -8136,7 +8520,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -8147,7 +8531,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -8158,7 +8542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CCFFEE-AD4F-4998-9FF8-BEBE406919BA}">
   <dimension ref="G1:K41"/>
   <sheetViews>
@@ -8178,10 +8562,10 @@
   <sheetData>
     <row r="1" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G1" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>683</v>
@@ -8193,10 +8577,10 @@
     </row>
     <row r="2" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>683</v>
@@ -8209,14 +8593,14 @@
     <row r="3" spans="7:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="7:11" x14ac:dyDescent="0.3">
@@ -8241,10 +8625,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -8254,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -8265,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8276,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -8287,7 +8671,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -8297,8 +8681,8 @@
       <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="98" t="s">
-        <v>1067</v>
+      <c r="H10" s="107" t="s">
+        <v>1065</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -8308,7 +8692,7 @@
       <c r="G11" s="9">
         <v>7</v>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -8318,7 +8702,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -8329,10 +8713,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -8342,7 +8726,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -8353,7 +8737,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -8364,10 +8748,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>1072</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>1074</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -8377,10 +8761,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -8408,7 +8792,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -8419,7 +8803,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -8449,7 +8833,7 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -8459,10 +8843,10 @@
         <v>21</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -8473,7 +8857,7 @@
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="16" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -8484,7 +8868,7 @@
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="16" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -8494,7 +8878,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -8611,13 +8995,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2668A23-9597-4663-AB13-53671893D1BB}">
   <dimension ref="G1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8630,10 +9014,10 @@
   <sheetData>
     <row r="1" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G1" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>683</v>
@@ -8646,14 +9030,14 @@
     <row r="2" spans="7:11" ht="144" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="H2" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="7:11" x14ac:dyDescent="0.3">
@@ -8697,7 +9081,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8708,7 +9092,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8728,7 +9112,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -8766,7 +9150,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -8777,7 +9161,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="18" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -8967,7 +9351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C589C0-B05A-4DDE-965C-9ED5A6D2080F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8981,389 +9365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:F35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
-        <v>44774</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
-        <v>44775</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
-        <v>44776</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
-        <v>44777</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>44778</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>44779</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>44780</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>44781</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>44782</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
-        <v>44783</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
-        <v>44784</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
-        <v>44785</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
-        <v>44786</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
-        <v>44787</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C19" s="8">
-        <v>44788</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
-        <v>44789</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="8">
-        <v>44790</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
-        <v>44791</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="8">
-        <v>44792</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="8">
-        <v>44793</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="8">
-        <v>44794</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="8">
-        <v>44795</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="8">
-        <v>44796</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="8">
-        <v>44797</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="8">
-        <v>44798</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="8">
-        <v>44799</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C31" s="8">
-        <v>44800</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
-        <v>44801</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C33" s="8">
-        <v>44802</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
-        <v>44803</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C35" s="8">
-        <v>44804</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF412D-838F-4C12-A7DC-B4E32B510569}">
   <dimension ref="C3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="D6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9385,16 +9392,16 @@
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="77">
+      <c r="D4" s="76">
         <v>1</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="76">
         <v>2</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <v>3</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="77" t="s">
         <v>668</v>
       </c>
       <c r="J4" s="1"/>
@@ -9415,7 +9422,7 @@
       <c r="F5" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="77" t="s">
         <v>193</v>
       </c>
       <c r="J5" s="1"/>
@@ -9433,7 +9440,7 @@
       <c r="F6" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="77" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="1"/>
@@ -9451,7 +9458,7 @@
       <c r="F7" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="77" t="s">
         <v>717</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -9467,7 +9474,7 @@
       <c r="F8" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="77" t="s">
         <v>718</v>
       </c>
       <c r="J8" s="1"/>
@@ -9973,6 +9980,383 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="8">
+        <v>44774</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>44775</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>44776</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>44777</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>44778</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>44779</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>44780</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>44781</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <v>44782</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <v>44784</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="8">
+        <v>44785</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <v>44786</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>44787</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <v>44788</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="8">
+        <v>44789</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="8">
+        <v>44790</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C22" s="8">
+        <v>44791</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="8">
+        <v>44792</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C24" s="8">
+        <v>44793</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="8">
+        <v>44794</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C26" s="8">
+        <v>44795</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="8">
+        <v>44796</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="8">
+        <v>44797</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="8">
+        <v>44798</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="8">
+        <v>44799</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C31" s="8">
+        <v>44800</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C32" s="8">
+        <v>44801</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C33" s="8">
+        <v>44802</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C34" s="8">
+        <v>44803</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C35" s="8">
+        <v>44804</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
   <dimension ref="B4:H34"/>
   <sheetViews>
@@ -10374,10 +10758,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="112" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="8">
@@ -10395,8 +10779,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -10412,8 +10796,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -10429,8 +10813,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -10444,8 +10828,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
@@ -10473,7 +10857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
   <dimension ref="C3:L34"/>
   <sheetViews>
@@ -10959,15 +11343,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11449,7 +11833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
   <dimension ref="E1:I32"/>
   <sheetViews>
@@ -11695,12 +12079,12 @@
       <c r="E16" s="60">
         <v>44910</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="98">
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="107">
         <v>2</v>
       </c>
     </row>
@@ -11708,144 +12092,144 @@
       <c r="E17" s="60">
         <v>44911</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="99"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="108"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="60">
         <v>44912</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="99"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="108"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="60">
         <v>44913</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="99"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="108"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="60">
         <v>44914</v>
       </c>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="99"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="108"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="60">
         <v>44915</v>
       </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="99"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="60">
         <v>44916</v>
       </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="99"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="60">
         <v>44917</v>
       </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="99"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="60">
         <v>44918</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="99"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="60">
         <v>44919</v>
       </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="99"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="60">
         <v>44920</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="99"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="60">
         <v>44921</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="60">
         <v>44922</v>
       </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" s="60">
         <v>44923</v>
       </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="60">
         <v>44924</v>
       </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="60">
         <v>44925</v>
       </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="60">
         <v>44926</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="121"/>
       <c r="I32" s="9"/>
     </row>
   </sheetData>
@@ -11859,10 +12243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11892,6 +12276,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -11921,29 +12310,28 @@
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="G2" s="91" t="s">
+      <c r="E2" s="100"/>
+      <c r="G2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="100"/>
       <c r="J2" s="5" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="N2" s="40" t="s">
+      <c r="L2"/>
+      <c r="M2" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="90" t="s">
-        <v>0</v>
-      </c>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="57" t="s">
@@ -11993,15 +12381,14 @@
       <c r="K3" s="4">
         <v>20000</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="N3" s="4">
-        <v>24000</v>
-      </c>
-      <c r="O3" s="9">
-        <v>2020</v>
-      </c>
+      <c r="L3"/>
+      <c r="M3" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N3" s="1">
+        <v>120000</v>
+      </c>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" s="4" t="s">
         <v>467</v>
@@ -12023,7 +12410,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E4" s="4">
         <v>40000</v>
@@ -12040,15 +12427,14 @@
       <c r="K4" s="4">
         <v>25000</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="N4" s="4">
-        <v>8000</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2021</v>
-      </c>
+      <c r="L4"/>
+      <c r="M4" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" s="4" t="s">
         <v>479</v>
@@ -12088,15 +12474,14 @@
       <c r="K5" s="4">
         <v>35000</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="N5" s="4">
-        <v>14000</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="L5"/>
+      <c r="M5" s="1">
         <v>2022</v>
       </c>
+      <c r="N5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="4" t="s">
         <v>479</v>
@@ -12136,15 +12521,15 @@
       <c r="K6" s="4">
         <v>20000</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="N6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2022</v>
-      </c>
+      <c r="L6"/>
+      <c r="M6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(10000+10000+10000+5000+5000+5000+5000+7000+7000)</f>
+        <v>64000</v>
+      </c>
+      <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="4" t="s">
         <v>465</v>
@@ -12165,12 +12550,8 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5000</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>365</v>
       </c>
@@ -12184,15 +12565,14 @@
       <c r="K7" s="4">
         <v>10000</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="N7" s="4">
-        <v>8000</v>
-      </c>
-      <c r="O7" s="9">
-        <v>2021</v>
-      </c>
+      <c r="L7"/>
+      <c r="M7" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N7" s="1">
+        <v>275000</v>
+      </c>
+      <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="54" t="s">
         <v>463</v>
@@ -12219,10 +12599,10 @@
       <c r="E8" s="4">
         <v>450</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="4">
         <v>5000</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -12231,15 +12611,10 @@
       <c r="K8" s="4">
         <v>20000</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="N8" s="4">
-        <v>9600</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>984</v>
-      </c>
+      <c r="L8"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="4" t="s">
         <v>480</v>
@@ -12270,14 +12645,15 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="41" t="s">
+      <c r="L9"/>
+      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="1">
         <f>SUM(N3:N8)</f>
-        <v>78600</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>584000</v>
+      </c>
+      <c r="O9"/>
       <c r="P9"/>
       <c r="Q9" s="4" t="s">
         <v>464</v>
@@ -12304,7 +12680,7 @@
         <v>800</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H10" s="4">
         <v>50000</v>
@@ -12406,8 +12782,8 @@
         <v>443</v>
       </c>
       <c r="K13" s="63">
-        <f>SUM(H18+K12)</f>
-        <v>265101</v>
+        <f>SUM(H19+K12)</f>
+        <v>266684.33333333337</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>493</v>
@@ -12449,7 +12825,7 @@
       </c>
       <c r="K14" s="43">
         <f>K13/0.6</f>
-        <v>441835</v>
+        <v>444473.88888888899</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>494</v>
@@ -12467,7 +12843,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -12490,7 +12866,7 @@
       </c>
       <c r="K15" s="63">
         <f>(K14/0.88)*12</f>
-        <v>6025022.7272727275</v>
+        <v>6061007.5757575771</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>495</v>
@@ -12509,213 +12885,227 @@
         <v>9316</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="R16" s="92"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>5000</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G17" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="115">
-        <f>SUM(H6:H15)</f>
-        <v>175596</v>
-      </c>
-      <c r="I16" s="64" t="s">
+      <c r="H17" s="94">
+        <f>SUM(H4:H16)</f>
+        <v>254596</v>
+      </c>
+      <c r="I17" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K17" s="4">
         <v>350000</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <f>(40*400)</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="45">
-        <f>(H16/12)</f>
-        <v>14633</v>
-      </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K17" s="4">
-        <v>250000</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4">
         <v>5000</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="47">
-        <f>SUM(H17,E21)</f>
-        <v>135101</v>
+      <c r="G18" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="45">
+        <f>(H17/12)</f>
+        <v>21216.333333333332</v>
       </c>
       <c r="I18" s="64"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K18" s="4">
+        <v>250000</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>904</v>
-      </c>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4">
         <v>5000</v>
       </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="47">
+        <f>SUM(H18,E22)</f>
+        <v>136684.33333333334</v>
+      </c>
       <c r="I19" s="64"/>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>904</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="K19" s="49">
-        <f>SUM(K13+K16+K18+K17)</f>
-        <v>865101</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="K20" s="49">
+        <f>SUM(K13+K17+K19+K18)</f>
+        <v>866684.33333333337</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="N20" s="4">
         <f>(50000+300000+45*500)</f>
         <v>372500</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72">
-        <v>44935</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E20" s="50">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="43">
-        <v>116107</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K20" s="59">
-        <f>(K19/0.6)</f>
-        <v>1441835</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="41">
-        <f>SUM(N12:N19)</f>
-        <v>582500</v>
-      </c>
-    </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72">
-        <v>44966</v>
-      </c>
-      <c r="D21" s="44" t="s">
+        <v>44935</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E21" s="50">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="43">
+        <v>123953</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K21" s="59">
+        <f>(K20/0.6)</f>
+        <v>1444473.888888889</v>
+      </c>
+      <c r="M21" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="45">
-        <f>SUM(E4:E20)</f>
-        <v>120468</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="51">
-        <v>16000</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="K21" s="49">
-        <f>(K20/0.88)*12</f>
-        <v>19661386.363636363</v>
+      <c r="N21" s="41">
+        <f>SUM(N12:N20)</f>
+        <v>582500</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="72">
+        <v>44966</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="45">
+        <f>SUM(E4:E21)</f>
+        <v>115468</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="51">
+        <v>16000</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="K22" s="49">
+        <f>(K21/0.88)*12</f>
+        <v>19697371.212121215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="72">
         <v>45000</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="53">
-        <f>SUM(H20:H21)</f>
-        <v>132107</v>
-      </c>
-      <c r="I22" s="65" t="s">
+      <c r="H23" s="53">
+        <f>SUM(H21:H22)</f>
+        <v>139953</v>
+      </c>
+      <c r="I23" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K23" s="54">
         <v>0.23</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J23" s="4" t="s">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K24" s="54">
         <v>0.34</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="52" t="s">
-        <v>963</v>
-      </c>
-      <c r="H24" s="89">
-        <f>(H22-H18)</f>
-        <v>-2994</v>
-      </c>
-      <c r="J24" s="55"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="52" t="s">
+        <v>961</v>
+      </c>
+      <c r="H25" s="88">
+        <f>(H23-H19)</f>
+        <v>3268.666666666657</v>
+      </c>
+      <c r="J25" s="55"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
@@ -12724,61 +13114,54 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="90" t="s">
-        <v>0</v>
-      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C28" s="4">
-        <v>24000</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2020</v>
-      </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="B28" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C29" s="4">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="D29" s="9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C30" s="4">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="D30" s="9">
-        <v>2022</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="4">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="D31" s="9">
         <v>2022</v>
@@ -12786,46 +13169,57 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="4">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="D32" s="9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>962</v>
+        <v>390</v>
       </c>
       <c r="C33" s="4">
-        <v>9600</v>
-      </c>
-      <c r="D33" s="114" t="s">
-        <v>984</v>
+        <v>8000</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2021</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>1096</v>
+        <v>960</v>
       </c>
       <c r="C34" s="4">
+        <v>9600</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C35" s="4">
         <v>950</v>
       </c>
-      <c r="D34" s="113">
+      <c r="D35" s="90">
         <v>45139</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="41" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="41">
-        <f>SUM(C28:C34)</f>
+      <c r="C36" s="41">
+        <f>SUM(C29:C35)</f>
         <v>79550</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12844,8 +13238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12863,30 +13257,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="F1" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="I1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="I1" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="M1" s="93" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="M1" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="Q1" s="94" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="Q1" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
@@ -12922,16 +13316,16 @@
       <c r="O2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="88" t="s">
+      <c r="R2" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="88" t="s">
+      <c r="S2" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="88" t="s">
+      <c r="T2" s="87" t="s">
         <v>913</v>
       </c>
     </row>
@@ -12969,16 +13363,16 @@
       <c r="O3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q3" s="84">
+      <c r="Q3" s="83">
         <v>1</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="S3" s="86" t="s">
+      <c r="S3" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="T3" s="86"/>
+      <c r="T3" s="85"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
@@ -13014,16 +13408,16 @@
       <c r="O4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" s="84">
+      <c r="Q4" s="83">
         <v>2</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="85" t="s">
         <v>914</v>
       </c>
-      <c r="T4" s="86"/>
+      <c r="T4" s="85"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
@@ -13059,16 +13453,16 @@
       <c r="O5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="83">
         <v>3</v>
       </c>
-      <c r="R5" s="85" t="s">
+      <c r="R5" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="86" t="s">
+      <c r="S5" s="85" t="s">
         <v>915</v>
       </c>
-      <c r="T5" s="86"/>
+      <c r="T5" s="85"/>
     </row>
     <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
@@ -13091,16 +13485,16 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="Q6" s="84">
+      <c r="Q6" s="83">
         <v>4</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="84" t="s">
         <v>916</v>
       </c>
-      <c r="S6" s="86" t="s">
+      <c r="S6" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="T6" s="86"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
@@ -13116,16 +13510,16 @@
       <c r="G7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="83">
         <v>5</v>
       </c>
-      <c r="R7" s="85" t="s">
+      <c r="R7" s="84" t="s">
         <v>917</v>
       </c>
-      <c r="S7" s="86" t="s">
+      <c r="S7" s="85" t="s">
         <v>918</v>
       </c>
-      <c r="T7" s="86"/>
+      <c r="T7" s="85"/>
     </row>
     <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
@@ -13141,16 +13535,16 @@
       <c r="G8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="83">
         <v>6</v>
       </c>
-      <c r="R8" s="85" t="s">
+      <c r="R8" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="S8" s="86" t="s">
+      <c r="S8" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="T8" s="86"/>
+      <c r="T8" s="85"/>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="7">
@@ -13159,33 +13553,33 @@
       <c r="G9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="83">
         <v>7</v>
       </c>
-      <c r="R9" s="85" t="s">
+      <c r="R9" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="S9" s="86" t="s">
+      <c r="S9" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="T9" s="86"/>
+      <c r="T9" s="85"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="Q10" s="84">
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="Q10" s="83">
         <v>8</v>
       </c>
-      <c r="R10" s="85" t="s">
+      <c r="R10" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="S10" s="86" t="s">
+      <c r="S10" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="T10" s="86"/>
+      <c r="T10" s="85"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -13197,16 +13591,16 @@
       <c r="D11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="83">
         <v>9</v>
       </c>
-      <c r="R11" s="85" t="s">
+      <c r="R11" s="84" t="s">
         <v>919</v>
       </c>
-      <c r="S11" s="86" t="s">
+      <c r="S11" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="T11" s="86"/>
+      <c r="T11" s="85"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
@@ -13218,16 +13612,16 @@
       <c r="D12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="83">
         <v>10</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="84" t="s">
         <v>920</v>
       </c>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="85" t="s">
         <v>921</v>
       </c>
-      <c r="T12" s="86"/>
+      <c r="T12" s="85"/>
     </row>
     <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
@@ -13257,16 +13651,16 @@
       <c r="O13" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="Q13" s="84">
+      <c r="Q13" s="83">
         <v>11</v>
       </c>
-      <c r="R13" s="85" t="s">
+      <c r="R13" s="84" t="s">
         <v>922</v>
       </c>
-      <c r="S13" s="86" t="s">
+      <c r="S13" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="T13" s="86"/>
+      <c r="T13" s="85"/>
     </row>
     <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="22"/>
@@ -13290,49 +13684,51 @@
       <c r="O14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="83">
         <v>12</v>
       </c>
-      <c r="R14" s="85" t="s">
+      <c r="R14" s="84" t="s">
         <v>923</v>
       </c>
-      <c r="S14" s="86" t="s">
+      <c r="S14" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="T14" s="86"/>
+      <c r="T14" s="85"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
       <c r="I15" s="26">
         <v>44933</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>297</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>947</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>1106</v>
+      </c>
       <c r="O15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="83">
         <v>13</v>
       </c>
-      <c r="R15" s="85" t="s">
-        <v>934</v>
-      </c>
-      <c r="S15" s="86" t="s">
+      <c r="R15" s="84" t="s">
+        <v>932</v>
+      </c>
+      <c r="S15" s="85" t="s">
         <v>924</v>
       </c>
-      <c r="T15" s="86"/>
+      <c r="T15" s="85"/>
     </row>
     <row r="16" spans="2:20" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="66"/>
@@ -13356,16 +13752,16 @@
       <c r="O16" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="83">
         <v>14</v>
       </c>
-      <c r="R16" s="85" t="s">
+      <c r="R16" s="84" t="s">
         <v>925</v>
       </c>
-      <c r="S16" s="86" t="s">
+      <c r="S16" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="T16" s="86"/>
+      <c r="T16" s="85"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
@@ -13381,7 +13777,7 @@
         <v>44572</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>297</v>
@@ -13395,12 +13791,12 @@
       <c r="O17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q17" s="84">
+      <c r="Q17" s="83">
         <v>15</v>
       </c>
-      <c r="R17" s="85"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
     </row>
     <row r="18" spans="2:20" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19">
@@ -13412,7 +13808,7 @@
       <c r="D18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="75">
         <v>44572</v>
       </c>
       <c r="J18" s="4"/>
@@ -13428,16 +13824,16 @@
       <c r="O18" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="Q18" s="84">
+      <c r="Q18" s="83">
         <v>16</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="S18" s="86" t="s">
+      <c r="S18" s="85" t="s">
         <v>926</v>
       </c>
-      <c r="T18" s="86"/>
+      <c r="T18" s="85"/>
     </row>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
@@ -13465,16 +13861,16 @@
       <c r="O19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="83">
         <v>17</v>
       </c>
-      <c r="R19" s="85" t="s">
-        <v>932</v>
-      </c>
-      <c r="S19" s="86" t="s">
+      <c r="R19" s="84" t="s">
+        <v>930</v>
+      </c>
+      <c r="S19" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="T19" s="86"/>
+      <c r="T19" s="85"/>
     </row>
     <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
@@ -13500,16 +13896,16 @@
       <c r="O20" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="83">
         <v>18</v>
       </c>
-      <c r="R20" s="85" t="s">
-        <v>931</v>
-      </c>
-      <c r="S20" s="86" t="s">
+      <c r="R20" s="84" t="s">
+        <v>929</v>
+      </c>
+      <c r="S20" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="T20" s="86"/>
+      <c r="T20" s="85"/>
     </row>
     <row r="21" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
@@ -13527,7 +13923,7 @@
         <v>297</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>930</v>
+        <v>206</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>229</v>
@@ -13535,12 +13931,12 @@
       <c r="O21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q21" s="84">
+      <c r="Q21" s="83">
         <v>19</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
@@ -13566,25 +13962,25 @@
       <c r="O22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Q22" s="84">
+      <c r="Q22" s="83">
         <v>20</v>
       </c>
-      <c r="R22" s="85" t="s">
+      <c r="R22" s="84" t="s">
         <v>927</v>
       </c>
-      <c r="S22" s="86" t="s">
+      <c r="S22" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="T22" s="86"/>
-    </row>
-    <row r="23" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="27">
+      <c r="T22" s="85"/>
+    </row>
+    <row r="23" spans="2:20" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="99">
         <v>44594</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="98" t="s">
         <v>297</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -13594,23 +13990,23 @@
         <v>284</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="Q23" s="84">
+      <c r="Q23" s="95">
         <v>21</v>
       </c>
-      <c r="R23" s="85" t="s">
-        <v>928</v>
-      </c>
-      <c r="S23" s="86" t="s">
-        <v>933</v>
-      </c>
-      <c r="T23" s="86"/>
+      <c r="R23" s="96" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S23" s="97" t="s">
+        <v>931</v>
+      </c>
+      <c r="T23" s="85"/>
     </row>
     <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
       <c r="I24" s="27">
         <v>44595</v>
       </c>
@@ -13627,16 +14023,16 @@
         <v>286</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="Q24" s="84">
+      <c r="Q24" s="83">
         <v>22</v>
       </c>
-      <c r="R24" s="85" t="s">
-        <v>929</v>
-      </c>
-      <c r="S24" s="86" t="s">
+      <c r="R24" s="84" t="s">
+        <v>928</v>
+      </c>
+      <c r="S24" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="T24" s="86"/>
+      <c r="T24" s="85"/>
     </row>
     <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
@@ -13666,12 +14062,12 @@
       <c r="O25" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="Q25" s="84">
+      <c r="Q25" s="83">
         <v>23</v>
       </c>
-      <c r="R25" s="85"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
     </row>
     <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
@@ -13699,12 +14095,12 @@
       <c r="O26" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q26" s="84">
+      <c r="Q26" s="83">
         <v>24</v>
       </c>
-      <c r="R26" s="85"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
@@ -13812,9 +14208,15 @@
       <c r="K31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
@@ -13895,7 +14297,9 @@
       <c r="N34" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
@@ -13939,8 +14343,12 @@
       <c r="K36" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>907</v>
+      </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -14071,11 +14479,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="101" t="s">
         <v>609</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
       <c r="I44" s="31">
         <v>44719</v>
       </c>
@@ -15867,10 +16275,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15942,16 +16350,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>972</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>971</v>
+      </c>
+      <c r="E10" t="s">
+        <v>973</v>
+      </c>
+      <c r="F10" t="s">
         <v>974</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="E10" t="s">
-        <v>975</v>
-      </c>
-      <c r="F10" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -16073,76 +16481,89 @@
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="20" t="s">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -16177,9 +16598,11 @@
     <hyperlink ref="D33" r:id="rId28" xr:uid="{8DF16FFA-75E9-4A4C-A238-DF3C282FC48B}"/>
     <hyperlink ref="D34" r:id="rId29" xr:uid="{A4A9C2AA-3AFE-47A8-844D-AC333C56F5EC}"/>
     <hyperlink ref="D36" r:id="rId30" xr:uid="{D9443DE9-0B03-47E8-88E6-D6E9C075DFEA}"/>
+    <hyperlink ref="D37" r:id="rId31" display="https://www.amazon.in/StarAndDaisy-Adjustable-Multi-Function-Anti-Rollover-Folding/dp/B0BD57L2B9/ref=sr_1_4?crid=WDK6TKA1XPCF&amp;keywords=walker%2Bfor%2Bbaby%2Bboy%2B6%2Bto%2B18%2Bmonths&amp;qid=1695629991&amp;refinements=p_89%3AStarAndDaisy&amp;rnid=3837712031&amp;s=baby&amp;sprefix=walker%2Bfor%2B%2Caps%2C507&amp;sr=1-4&amp;th=1" xr:uid="{52AC26D2-C526-40F3-9102-9B184B9965D3}"/>
+    <hyperlink ref="D38" r:id="rId32" display="https://www.amazon.in/Mee-Baby-Walker-Adjustable-Travel-Friendly/dp/B0C8CVX67T/ref=sr_1_6?crid=15U4MSO2QNO9U&amp;keywords=walker%2Bbaby%2B6-18months%2Bboy&amp;qid=1694774856&amp;refinements=p_89%3AMee%2BMee&amp;rnid=3837712031&amp;s=baby&amp;sprefix=walker%2Caps%2C659&amp;sr=1-6&amp;th=1" xr:uid="{220A3EB0-66E4-4F3F-A8B1-026EF37F13CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -16188,7 +16611,7 @@
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16201,7 +16624,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="82" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -16219,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -16275,7 +16698,7 @@
         <v>839</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L8" s="7">
         <v>4</v>
@@ -16303,12 +16726,12 @@
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C10" s="4">
         <v>17000000</v>
@@ -16342,7 +16765,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G12" s="19">
         <v>11000</v>
@@ -16354,7 +16777,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="F13" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G13" s="19">
         <v>5000</v>
@@ -16365,7 +16788,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="F14" s="80"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="1"/>
@@ -16373,7 +16796,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="F15" s="80"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="1"/>
@@ -16381,10 +16804,10 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="80">
         <f>SUM(G6:G15)</f>
         <v>50950</v>
       </c>
@@ -16402,10 +16825,10 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="76">
         <f>SUM(C8:C18)</f>
         <v>27000000</v>
       </c>
@@ -16455,7 +16878,7 @@
         <v>2023</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -16507,7 +16930,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -16637,30 +17060,30 @@
     </row>
     <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/5_Daily Schedule/Daily_Schedule.xlsx
+++ b/5_Daily Schedule/Daily_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/5_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E73017D-D28B-4A7E-8548-D8A8AA83054E}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E17550-D009-4044-B59A-987B16C05C05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1121">
   <si>
     <t>Date</t>
   </si>
@@ -4553,6 +4553,30 @@
   </si>
   <si>
     <t>Dheeraj</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0C9QPM3BN/ref=twister_B0CDPNBDH7?th=1</t>
+  </si>
+  <si>
+    <t>Aadvika, Aradhya</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Krithick</t>
+  </si>
+  <si>
+    <t>Haritha</t>
+  </si>
+  <si>
+    <t>Akshara</t>
+  </si>
+  <si>
+    <t>Aashvi</t>
+  </si>
+  <si>
+    <t>Yashu, Sravani bday</t>
   </si>
 </sst>
 </file>
@@ -4916,7 +4940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5243,6 +5267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12245,8 +12270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13236,10 +13261,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14148,7 +14173,9 @@
       <c r="N28" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="O28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
@@ -14241,7 +14268,9 @@
         <v>156</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
@@ -14324,7 +14353,9 @@
       <c r="N35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
@@ -14349,7 +14380,9 @@
       <c r="N36" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="O36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="22">
@@ -14368,9 +14401,15 @@
       <c r="K37" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="22">
@@ -14565,7 +14604,7 @@
         <v>44734</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>240</v>
+        <v>1120</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>297</v>
@@ -15138,6 +15177,56 @@
       <c r="K95" s="1" t="s">
         <v>297</v>
       </c>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I96" s="33"/>
+      <c r="J96" s="122"/>
+      <c r="K96" s="122"/>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="I13:K95" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}"/>
@@ -16275,10 +16364,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16564,6 +16653,14 @@
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D38" s="20" t="s">
         <v>1101</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>855</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
